--- a/docs/cmdlist.xlsx
+++ b/docs/cmdlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAIZAKURA\Desktop\Works\Project\SmartManholeDash\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C3FE1F-3439-4C39-A7A4-36EA2236EF37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BB82E4-412A-40CE-AC3E-8F6DC0471B0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Command List</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{name}/alarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{name} : device name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,15 +81,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{name}/close/{user}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>open</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{name}/open/{user}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -113,20 +101,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{pass} : device unlock pass
-{user} : operate user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>open/{pass}/{user}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>device password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>md5({name}/{user})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pass} : device password
+{user} : operate user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok/{name}/{user}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set device completed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>op/{pass}/{user}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{name}/op/{user}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{name}/cl/{user}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{name}/al</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -319,21 +331,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -343,7 +340,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -632,25 +644,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V472"/>
+  <dimension ref="A1:V474"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="C33" sqref="C33:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -667,14 +679,14 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -739,16 +751,16 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -765,14 +777,14 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -789,20 +801,20 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -819,14 +831,14 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -843,20 +855,20 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -873,14 +885,14 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -897,20 +909,20 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>23</v>
+      <c r="A11" s="2" t="s">
+        <v>18</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
-        <v>24</v>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -927,14 +939,14 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -999,16 +1011,16 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1025,14 +1037,14 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1049,20 +1061,20 @@
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1079,14 +1091,14 @@
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1103,25 +1115,25 @@
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>15</v>
+      <c r="A19" s="9" t="s">
+        <v>13</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
-        <v>16</v>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>25</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="10" t="s">
-        <v>17</v>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="6" t="s">
+        <v>14</v>
       </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1135,17 +1147,17 @@
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1159,20 +1171,20 @@
       <c r="V20" s="1"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>13</v>
+      <c r="A21" s="2" t="s">
+        <v>12</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7" t="s">
-        <v>14</v>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1189,14 +1201,14 @@
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1213,20 +1225,20 @@
       <c r="V22" s="1"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1243,14 +1255,14 @@
       <c r="V23" s="1"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1315,16 +1327,16 @@
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>18</v>
+      <c r="A27" s="7" t="s">
+        <v>15</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1341,14 +1353,14 @@
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1365,20 +1377,20 @@
       <c r="V28" s="1"/>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4" t="s">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1395,14 +1407,14 @@
       <c r="V29" s="1"/>
     </row>
     <row r="30" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -1419,20 +1431,20 @@
       <c r="V30" s="1"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>19</v>
+      <c r="A31" s="4" t="s">
+        <v>16</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9" t="s">
-        <v>20</v>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>17</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="6" t="s">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1449,14 +1461,14 @@
       <c r="V31" s="1"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1473,20 +1485,20 @@
       <c r="V32" s="1"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>15</v>
+      <c r="A33" s="2" t="s">
+        <v>21</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8" t="s">
-        <v>21</v>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>23</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -1503,14 +1515,14 @@
       <c r="V33" s="1"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -1527,14 +1539,20 @@
       <c r="V34" s="1"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="A35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -1551,14 +1569,14 @@
       <c r="V35" s="1"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -12038,17 +12056,70 @@
       <c r="U472" s="1"/>
       <c r="V472" s="1"/>
     </row>
+    <row r="473" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A473" s="1"/>
+      <c r="B473" s="1"/>
+      <c r="C473" s="1"/>
+      <c r="D473" s="1"/>
+      <c r="E473" s="1"/>
+      <c r="F473" s="1"/>
+      <c r="G473" s="1"/>
+      <c r="H473" s="1"/>
+      <c r="I473" s="1"/>
+      <c r="J473" s="1"/>
+      <c r="K473" s="1"/>
+      <c r="L473" s="1"/>
+      <c r="M473" s="1"/>
+      <c r="N473" s="1"/>
+      <c r="O473" s="1"/>
+      <c r="P473" s="1"/>
+      <c r="Q473" s="1"/>
+      <c r="R473" s="1"/>
+      <c r="S473" s="1"/>
+      <c r="T473" s="1"/>
+      <c r="U473" s="1"/>
+      <c r="V473" s="1"/>
+    </row>
+    <row r="474" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A474" s="1"/>
+      <c r="B474" s="1"/>
+      <c r="C474" s="1"/>
+      <c r="D474" s="1"/>
+      <c r="E474" s="1"/>
+      <c r="F474" s="1"/>
+      <c r="G474" s="1"/>
+      <c r="H474" s="1"/>
+      <c r="I474" s="1"/>
+      <c r="J474" s="1"/>
+      <c r="K474" s="1"/>
+      <c r="L474" s="1"/>
+      <c r="M474" s="1"/>
+      <c r="N474" s="1"/>
+      <c r="O474" s="1"/>
+      <c r="P474" s="1"/>
+      <c r="Q474" s="1"/>
+      <c r="R474" s="1"/>
+      <c r="S474" s="1"/>
+      <c r="T474" s="1"/>
+      <c r="U474" s="1"/>
+      <c r="V474" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C11:E12"/>
-    <mergeCell ref="F11:H12"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="C31:E32"/>
-    <mergeCell ref="F31:H32"/>
+  <mergeCells count="38">
+    <mergeCell ref="A5:H6"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="F7:H8"/>
     <mergeCell ref="A33:B34"/>
     <mergeCell ref="C33:E34"/>
     <mergeCell ref="F33:H34"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:E10"/>
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="A35:B36"/>
+    <mergeCell ref="C35:E36"/>
+    <mergeCell ref="F35:H36"/>
     <mergeCell ref="I19:K20"/>
     <mergeCell ref="A27:H28"/>
     <mergeCell ref="A29:B30"/>
@@ -12057,24 +12128,22 @@
     <mergeCell ref="A23:B24"/>
     <mergeCell ref="C23:E24"/>
     <mergeCell ref="F23:H24"/>
-    <mergeCell ref="A15:H16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:E18"/>
-    <mergeCell ref="F17:H18"/>
     <mergeCell ref="A21:B22"/>
     <mergeCell ref="C21:E22"/>
     <mergeCell ref="F21:H22"/>
     <mergeCell ref="A19:B20"/>
     <mergeCell ref="C19:E20"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:E12"/>
+    <mergeCell ref="F11:H12"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="C31:E32"/>
+    <mergeCell ref="F31:H32"/>
+    <mergeCell ref="A15:H16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:E18"/>
+    <mergeCell ref="F17:H18"/>
     <mergeCell ref="F19:H20"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:E10"/>
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="A5:H6"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="F7:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/cmdlist.xlsx
+++ b/docs/cmdlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAIZAKURA\Desktop\Works\Project\SmartManholeDash\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BB82E4-412A-40CE-AC3E-8F6DC0471B0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5D0EC2-C6C6-4188-8770-8492D8E517CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10170" yWindow="735" windowWidth="19560" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Command List</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,10 @@
   </si>
   <si>
     <t>{name}/al</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device publish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -331,32 +335,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -646,23 +650,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V474"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:E34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -679,14 +683,14 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -751,16 +755,16 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -777,14 +781,14 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -801,20 +805,20 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -831,14 +835,14 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -855,20 +859,20 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="5" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -885,14 +889,14 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -909,20 +913,20 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -939,14 +943,14 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1011,16 +1015,16 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1037,14 +1041,14 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1061,20 +1065,20 @@
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1091,14 +1095,14 @@
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1115,28 +1119,30 @@
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="5" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="6" t="s">
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1147,20 +1153,20 @@
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -1171,23 +1177,23 @@
       <c r="V20" s="1"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1201,17 +1207,17 @@
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1225,23 +1231,23 @@
       <c r="V22" s="1"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5" t="s">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1255,17 +1261,17 @@
       <c r="V23" s="1"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -1327,16 +1333,16 @@
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1353,14 +1359,14 @@
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1377,20 +1383,20 @@
       <c r="V28" s="1"/>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1407,14 +1413,14 @@
       <c r="V29" s="1"/>
     </row>
     <row r="30" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -1431,20 +1437,20 @@
       <c r="V30" s="1"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5" t="s">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1461,14 +1467,14 @@
       <c r="V31" s="1"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1485,20 +1491,20 @@
       <c r="V32" s="1"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -1515,14 +1521,14 @@
       <c r="V33" s="1"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -1539,20 +1545,20 @@
       <c r="V34" s="1"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4" t="s">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="5" t="s">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -1569,14 +1575,14 @@
       <c r="V35" s="1"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -12105,22 +12111,18 @@
       <c r="V474" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A5:H6"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="F7:H8"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="C33:E34"/>
-    <mergeCell ref="F33:H34"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:E10"/>
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:E8"/>
+  <mergeCells count="39">
+    <mergeCell ref="L19:N20"/>
+    <mergeCell ref="I19:K24"/>
+    <mergeCell ref="F31:H32"/>
+    <mergeCell ref="A15:H16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:E18"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="F19:H20"/>
     <mergeCell ref="A35:B36"/>
     <mergeCell ref="C35:E36"/>
     <mergeCell ref="F35:H36"/>
-    <mergeCell ref="I19:K20"/>
     <mergeCell ref="A27:H28"/>
     <mergeCell ref="A29:B30"/>
     <mergeCell ref="C29:E30"/>
@@ -12133,17 +12135,22 @@
     <mergeCell ref="F21:H22"/>
     <mergeCell ref="A19:B20"/>
     <mergeCell ref="C19:E20"/>
+    <mergeCell ref="A5:H6"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="F7:H8"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="C33:E34"/>
+    <mergeCell ref="F33:H34"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:E10"/>
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:E8"/>
     <mergeCell ref="A11:B12"/>
     <mergeCell ref="C11:E12"/>
     <mergeCell ref="F11:H12"/>
     <mergeCell ref="A31:B32"/>
     <mergeCell ref="C31:E32"/>
-    <mergeCell ref="F31:H32"/>
-    <mergeCell ref="A15:H16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:E18"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="F19:H20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/cmdlist.xlsx
+++ b/docs/cmdlist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAIZAKURA\Desktop\Works\Project\SmartManholeDash\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAIZAKURA\Desktop\Works\Project\SmartManholeServer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5D0EC2-C6C6-4188-8770-8492D8E517CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82ED06E8-C33F-4DE2-9863-95E77E9FD052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10170" yWindow="735" windowWidth="19560" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="2280" windowWidth="19560" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,19 +130,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{name}/op/{user}</t>
+    <t>device publish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{name}/cl/{user}</t>
+    <t>op/{name}/{user}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{name}/al</t>
+    <t>cl/{name}/{user}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>device publish</t>
+    <t>al/{name}/none</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -335,19 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="5">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="5" applyAlignment="1">
@@ -356,11 +344,23 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -650,23 +650,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -683,14 +683,14 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -755,16 +755,16 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -781,14 +781,14 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -805,20 +805,20 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -835,14 +835,14 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -859,20 +859,20 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -889,14 +889,14 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -913,20 +913,20 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="10" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -943,14 +943,14 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1015,16 +1015,16 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1041,14 +1041,14 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1065,20 +1065,20 @@
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1095,14 +1095,14 @@
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1119,30 +1119,30 @@
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9" t="s">
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1153,20 +1153,20 @@
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -1177,23 +1177,23 @@
       <c r="V20" s="1"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
-        <v>26</v>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8" t="s">
+        <v>27</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="10" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1207,17 +1207,17 @@
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1231,23 +1231,23 @@
       <c r="V22" s="1"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>27</v>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>28</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="7" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1261,17 +1261,17 @@
       <c r="V23" s="1"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -1333,16 +1333,16 @@
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1359,14 +1359,14 @@
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1383,20 +1383,20 @@
       <c r="V28" s="1"/>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1413,14 +1413,14 @@
       <c r="V29" s="1"/>
     </row>
     <row r="30" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -1437,20 +1437,20 @@
       <c r="V30" s="1"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="7" t="s">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1467,14 +1467,14 @@
       <c r="V31" s="1"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1491,20 +1491,20 @@
       <c r="V32" s="1"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5" t="s">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5" t="s">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -1521,14 +1521,14 @@
       <c r="V33" s="1"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -1545,20 +1545,20 @@
       <c r="V34" s="1"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="7" t="s">
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -1575,14 +1575,14 @@
       <c r="V35" s="1"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -12112,29 +12112,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="L19:N20"/>
-    <mergeCell ref="I19:K24"/>
-    <mergeCell ref="F31:H32"/>
-    <mergeCell ref="A15:H16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:E18"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="F19:H20"/>
-    <mergeCell ref="A35:B36"/>
-    <mergeCell ref="C35:E36"/>
-    <mergeCell ref="F35:H36"/>
-    <mergeCell ref="A27:H28"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:H30"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:E24"/>
-    <mergeCell ref="F23:H24"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:E22"/>
-    <mergeCell ref="F21:H22"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:E20"/>
     <mergeCell ref="A5:H6"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="F7:H8"/>
@@ -12151,6 +12128,29 @@
     <mergeCell ref="F11:H12"/>
     <mergeCell ref="A31:B32"/>
     <mergeCell ref="C31:E32"/>
+    <mergeCell ref="A35:B36"/>
+    <mergeCell ref="C35:E36"/>
+    <mergeCell ref="F35:H36"/>
+    <mergeCell ref="A27:H28"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:H30"/>
+    <mergeCell ref="L19:N20"/>
+    <mergeCell ref="I19:K24"/>
+    <mergeCell ref="F31:H32"/>
+    <mergeCell ref="A15:H16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:E18"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="F19:H20"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:E24"/>
+    <mergeCell ref="F23:H24"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:E22"/>
+    <mergeCell ref="F21:H22"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:E20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/cmdlist.xlsx
+++ b/docs/cmdlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAIZAKURA\Desktop\Works\Project\SmartManholeServer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82ED06E8-C33F-4DE2-9863-95E77E9FD052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7E6FBA-F7D2-4543-94A9-431DA731CD07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="2280" windowWidth="19560" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="915" yWindow="2625" windowWidth="19560" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -308,6 +308,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -330,37 +392,73 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -650,23 +748,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:E24"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I31" sqref="A31:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -683,14 +781,14 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -755,16 +853,16 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -781,14 +879,14 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -805,20 +903,20 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -835,14 +933,14 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -859,20 +957,20 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="3" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -889,14 +987,14 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -913,20 +1011,20 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -943,14 +1041,14 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1015,16 +1113,16 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1041,14 +1139,14 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1065,20 +1163,20 @@
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1095,14 +1193,14 @@
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1119,30 +1217,30 @@
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="3" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="2" t="s">
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2" t="s">
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1153,20 +1251,20 @@
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -1177,23 +1275,23 @@
       <c r="V20" s="1"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1207,17 +1305,17 @@
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1231,23 +1329,23 @@
       <c r="V22" s="1"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="3" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1261,17 +1359,17 @@
       <c r="V23" s="1"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -1333,16 +1431,16 @@
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1359,14 +1457,14 @@
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1383,20 +1481,20 @@
       <c r="V28" s="1"/>
     </row>
     <row r="29" spans="1:22" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1413,14 +1511,14 @@
       <c r="V29" s="1"/>
     </row>
     <row r="30" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -1437,20 +1535,20 @@
       <c r="V30" s="1"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="3" t="s">
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="19"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1467,14 +1565,14 @@
       <c r="V31" s="1"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="22"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1491,20 +1589,20 @@
       <c r="V32" s="1"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8" t="s">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -1521,14 +1619,14 @@
       <c r="V33" s="1"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -1545,20 +1643,20 @@
       <c r="V34" s="1"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="3" t="s">
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -1575,14 +1673,14 @@
       <c r="V35" s="1"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -12112,6 +12210,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="L19:N20"/>
+    <mergeCell ref="I19:K24"/>
+    <mergeCell ref="A15:H16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:E18"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="F19:H20"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:E24"/>
+    <mergeCell ref="F23:H24"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:E22"/>
+    <mergeCell ref="F21:H22"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:E20"/>
+    <mergeCell ref="A35:B36"/>
+    <mergeCell ref="C35:E36"/>
+    <mergeCell ref="F35:H36"/>
+    <mergeCell ref="A27:H28"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:E30"/>
+    <mergeCell ref="F29:H30"/>
+    <mergeCell ref="F31:H32"/>
     <mergeCell ref="A5:H6"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="F7:H8"/>
@@ -12128,29 +12249,6 @@
     <mergeCell ref="F11:H12"/>
     <mergeCell ref="A31:B32"/>
     <mergeCell ref="C31:E32"/>
-    <mergeCell ref="A35:B36"/>
-    <mergeCell ref="C35:E36"/>
-    <mergeCell ref="F35:H36"/>
-    <mergeCell ref="A27:H28"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="F29:H30"/>
-    <mergeCell ref="L19:N20"/>
-    <mergeCell ref="I19:K24"/>
-    <mergeCell ref="F31:H32"/>
-    <mergeCell ref="A15:H16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:E18"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="F19:H20"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:E24"/>
-    <mergeCell ref="F23:H24"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:E22"/>
-    <mergeCell ref="F21:H22"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:E20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
